--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerificationPage" sheetId="2" r:id="rId2"/>
     <sheet name="ContactInfoPage" sheetId="3" r:id="rId3"/>
     <sheet name="AccountSecurityPage" sheetId="4" r:id="rId4"/>
+    <sheet name="HardLogin_Loggedin_Account" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -234,6 +235,24 @@
   </si>
   <si>
     <t>Please indicate that you have read and agree to our  terms and condition.</t>
+  </si>
+  <si>
+    <t>Error_InvalidEmail</t>
+  </si>
+  <si>
+    <t>Error_Email_NotExist</t>
+  </si>
+  <si>
+    <t>We're sorry - that email does not exist. Please check your entry and try again.</t>
+  </si>
+  <si>
+    <t>Error_Incorrect_Password</t>
+  </si>
+  <si>
+    <t>We're sorry - that password does not exist. Please check your entry and try again.</t>
+  </si>
+  <si>
+    <t>Error_Invalid_Password</t>
   </si>
 </sst>
 </file>
@@ -842,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1047,4 +1066,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="150.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ContactInfoPage" sheetId="3" r:id="rId3"/>
     <sheet name="AccountSecurityPage" sheetId="4" r:id="rId4"/>
     <sheet name="HardLogin_Loggedin_Account" sheetId="5" r:id="rId5"/>
+    <sheet name="Reset_PIN" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -253,6 +254,12 @@
   </si>
   <si>
     <t>Error_Invalid_Password</t>
+  </si>
+  <si>
+    <t>Please enter a PIN that meets the PIN requirements.</t>
+  </si>
+  <si>
+    <t>Error_Pin_Error_RepeatingNumbers_Msg</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1125,4 +1132,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="AccountSecurityPage" sheetId="4" r:id="rId4"/>
     <sheet name="HardLogin_Loggedin_Account" sheetId="5" r:id="rId5"/>
     <sheet name="Reset_PIN" sheetId="6" r:id="rId6"/>
+    <sheet name="Forgot_Password" sheetId="7" r:id="rId7"/>
+    <sheet name="Reset_Password" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -260,6 +262,18 @@
   </si>
   <si>
     <t>Error_Pin_Error_RepeatingNumbers_Msg</t>
+  </si>
+  <si>
+    <t>Error_Invalid_Email</t>
+  </si>
+  <si>
+    <t>We’re sorry – we can’t find that email address. Please check your entry and try again.</t>
+  </si>
+  <si>
+    <t>Error_NotMatching_Passwords</t>
+  </si>
+  <si>
+    <t>Error_Password_Requirement</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,4 +1253,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>

--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="4" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Reset_PIN" sheetId="6" r:id="rId6"/>
     <sheet name="Forgot_Password" sheetId="7" r:id="rId7"/>
     <sheet name="Reset_Password" sheetId="8" r:id="rId8"/>
+    <sheet name="Set_Pin_PW_in_Security_Info" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>Error_Password_Requirement</t>
+  </si>
+  <si>
+    <t>Your account security is our priority. Please call Customer Care Center at [844-745-0463] to complete account set up.</t>
   </si>
 </sst>
 </file>
@@ -775,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1339,4 +1343,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="139.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>Your account security is our priority. Please call Customer Care Center at [844-745-0463] to complete account set up.</t>
+  </si>
+  <si>
+    <t>Empty_Offers_selection</t>
+  </si>
+  <si>
+    <t>Please make a selection to receive exclusive offers.</t>
+  </si>
+  <si>
+    <t>Error_landline_primaryphone</t>
+  </si>
+  <si>
+    <t>Please provide a valid cell number to receive exclusive offers.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -346,6 +358,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +891,22 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1302,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,13 +1381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="139.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>Please provide a valid cell number to receive exclusive offers.</t>
+  </si>
+  <si>
+    <t>Empty_code_email</t>
+  </si>
+  <si>
+    <t>Please re-enter the 6 digit code you received.</t>
+  </si>
+  <si>
+    <t>Invalid_code_email</t>
+  </si>
+  <si>
+    <t>Sorry, 6 digit code is incorrect. Click below to resend email or try another method.</t>
+  </si>
+  <si>
+    <t>Invalid_code_email_thirdtym</t>
+  </si>
+  <si>
+    <t>We're sorry - that code is not correct. Please select a different verification method or call customer service at (844) 745-0463.</t>
   </si>
 </sst>
 </file>
@@ -346,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -362,6 +380,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +807,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -795,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Please enter a valid 10-digit US phone number (must not include spaces or special characters. Try again or call customer service at (844) 745-0463 if you need help.</t>
   </si>
   <si>
-    <t>Whoops! The phone number you entered seems to be incorrect. Try again or if you need help, call us at (844) 745-0463.</t>
-  </si>
-  <si>
     <t>We’re sorry – that doesn’t appear to be a valid card format. Please check the back of your rewards card and try again.</t>
   </si>
   <si>
@@ -308,16 +305,33 @@
   </si>
   <si>
     <t>We're sorry - that code is not correct. Please select a different verification method or call customer service at (844) 745-0463.</t>
+  </si>
+  <si>
+    <t>It appears that phone number is already registered. Please log in to reset your pin.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,10 +375,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -384,8 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -690,6 +707,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
@@ -702,90 +778,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -793,7 +810,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -801,7 +818,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -809,26 +826,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -852,106 +869,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -975,194 +992,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1186,42 +1203,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1245,90 +1262,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1352,26 +1369,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1395,26 +1412,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1438,106 +1455,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -308,6 +308,30 @@
   </si>
   <si>
     <t>It appears that phone number is already registered. Please log in to reset your pin.</t>
+  </si>
+  <si>
+    <t>Invalid_Month_Day_ErrMsg</t>
+  </si>
+  <si>
+    <t>The month and day you've entered is incorrect. Please enter valid format.</t>
+  </si>
+  <si>
+    <t>Invalid_Day_Year_ErrMsg</t>
+  </si>
+  <si>
+    <t>The day and year you've entered is incorrect. Please enter valid format.</t>
+  </si>
+  <si>
+    <t>Invalid_Month_Year_ErrMsg</t>
+  </si>
+  <si>
+    <t>The month and year you've entered is incorrect. Please enter valid format.</t>
+  </si>
+  <si>
+    <t>Invalid_Month_Day_Year_ErrMsg</t>
+  </si>
+  <si>
+    <t>The month, day and year you've entered is incorrect. Please enter valid format.</t>
   </si>
 </sst>
 </file>
@@ -707,6 +731,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
@@ -727,65 +810,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -846,6 +870,38 @@
       </c>
       <c r="B9" s="8" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Demo/TestData/ErrorMessageSheet.xlsx
+++ b/Demo/TestData/ErrorMessageSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AccountLookupPage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>The month you've entered is incorrect. Please enter valid format.</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>The month, day and year you've entered is incorrect. Please enter valid format.</t>
+  </si>
+  <si>
+    <t>Error_Invalid_Domain_Email</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -424,6 +427,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,6 +1619,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
